--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>表名</t>
   </si>
@@ -34,6 +34,12 @@
     <t>默认值</t>
   </si>
   <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>切割符</t>
+  </si>
+  <si>
     <t>TypeField</t>
   </si>
   <si>
@@ -56,6 +62,15 @@
   </si>
   <si>
     <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>IsArray</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Splitter</t>
   </si>
   <si>
     <t>输入字段</t>
@@ -81,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,88 +132,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,9 +146,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +224,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,16 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +287,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,7 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,31 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,73 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +505,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -501,6 +536,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,50 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -1066,7 +1081,7 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,165 +1099,207 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,81 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>标识名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>切割符</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>TypeField</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>IsArray</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>输入字段</t>
+  </si>
+  <si>
+    <t>InputFieldName</t>
+  </si>
+  <si>
+    <t>Go字段</t>
+  </si>
+  <si>
+    <t>GoFieldName</t>
+  </si>
+  <si>
+    <t>C#字段</t>
+  </si>
+  <si>
+    <t>CSFieldName</t>
+  </si>
+  <si>
+    <t>TablePragma</t>
+  </si>
   <si>
     <t>表名</t>
   </si>
   <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>标识名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>数组</t>
-  </si>
-  <si>
-    <t>切割符</t>
-  </si>
-  <si>
-    <t>TypeField</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>IsArray</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Splitter</t>
-  </si>
-  <si>
-    <t>输入字段</t>
-  </si>
-  <si>
-    <t>InputFieldName</t>
-  </si>
-  <si>
-    <t>Go字段</t>
-  </si>
-  <si>
-    <t>GoFieldName</t>
-  </si>
-  <si>
-    <t>C#字段</t>
-  </si>
-  <si>
-    <t>CSFieldName</t>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>表文件名</t>
+  </si>
+  <si>
+    <t>TableFileName</t>
+  </si>
+  <si>
+    <t>是垂直</t>
+  </si>
+  <si>
+    <t>IsVertical</t>
   </si>
 </sst>
 </file>
@@ -98,8 +122,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -122,17 +146,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,104 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,15 +252,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,67 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,115 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,37 +514,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,16 +568,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -563,30 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,16 +1090,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
@@ -1112,16 +1136,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1130,16 +1154,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1148,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1166,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1184,16 +1208,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1202,108 +1226,336 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -31,10 +31,10 @@
     <t>字段类型</t>
   </si>
   <si>
+    <t>数组</t>
+  </si>
+  <si>
     <t>默认值</t>
-  </si>
-  <si>
-    <t>数组</t>
   </si>
   <si>
     <t>切割符</t>
@@ -120,8 +120,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -153,68 +153,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +192,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +222,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,37 +263,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,19 +305,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,49 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,109 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +514,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,26 +585,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1147,9 +1147,9 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,9 +1165,9 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1183,9 +1183,9 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,9 +1219,9 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1237,7 +1237,7 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1361,10 +1361,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1380,23 +1380,33 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -1553,6 +1563,15 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15420"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>种类</t>
   </si>
@@ -43,7 +43,7 @@
     <t>表头</t>
   </si>
   <si>
-    <t>TypeField</t>
+    <t>TableField</t>
   </si>
   <si>
     <t>Kind</t>
@@ -103,13 +103,19 @@
     <t>TableName</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>表文件名</t>
   </si>
   <si>
     <t>TableFileName</t>
   </si>
   <si>
-    <t>是垂直</t>
+    <t>垂直表</t>
   </si>
   <si>
     <t>IsVertical</t>
@@ -121,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -146,6 +152,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -160,25 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,52 +283,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,43 +311,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,139 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +555,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,16 +584,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,17 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,15 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1353,7 +1359,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,8 +1375,13 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -1380,10 +1391,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1399,10 +1410,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1545,33 +1556,6 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="18480" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>种类</t>
   </si>
@@ -97,28 +97,55 @@
     <t>TablePragma</t>
   </si>
   <si>
+    <t>表类型</t>
+  </si>
+  <si>
+    <t>TableType</t>
+  </si>
+  <si>
     <t>表名</t>
   </si>
   <si>
     <t>TableName</t>
   </si>
   <si>
+    <t>表文件名</t>
+  </si>
+  <si>
+    <t>TableFileName</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>表文件名</t>
-  </si>
-  <si>
-    <t>TableFileName</t>
-  </si>
-  <si>
     <t>垂直表</t>
   </si>
   <si>
     <t>IsVertical</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>DataTable</t>
+  </si>
+  <si>
+    <t>符号表</t>
+  </si>
+  <si>
+    <t>SymbolTable</t>
   </si>
 </sst>
 </file>
@@ -127,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,47 +179,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,90 +293,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -544,16 +562,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,30 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -617,6 +620,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,16 +664,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,115 +682,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1359,7 +1386,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="16.5" spans="1:8">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1373,15 +1400,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -1391,10 +1413,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1402,7 +1424,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1410,52 +1432,98 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="2"/>
@@ -1556,6 +1624,15 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>种类</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>TableFileName</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>垂直表</t>
@@ -155,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,52 +173,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,8 +248,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,24 +295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,31 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -562,11 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,21 +600,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,8 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,31 +658,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,100 +694,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1120,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1424,7 +1418,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" ht="16.5" spans="1:8">
+    <row r="16" ht="16.5" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1440,13 +1434,8 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -1456,10 +1445,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1469,17 +1458,17 @@
     </row>
     <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1487,19 +1476,19 @@
     </row>
     <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1507,19 +1496,19 @@
     </row>
     <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9000"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>种类</t>
   </si>
@@ -34,66 +34,72 @@
     <t>数组</t>
   </si>
   <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>切割符</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>TableField</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IsArray</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>输入字段</t>
+  </si>
+  <si>
+    <t>InputFieldName</t>
+  </si>
+  <si>
+    <t>Go字段</t>
+  </si>
+  <si>
+    <t>GoFieldName</t>
+  </si>
+  <si>
+    <t>C#字段</t>
+  </si>
+  <si>
+    <t>CSFieldName</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
-    <t>切割符</t>
-  </si>
-  <si>
-    <t>表头</t>
-  </si>
-  <si>
-    <t>TableField</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
     <t>DefaultValue</t>
   </si>
   <si>
-    <t>IsArray</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Splitter</t>
-  </si>
-  <si>
-    <t>输入字段</t>
-  </si>
-  <si>
-    <t>InputFieldName</t>
-  </si>
-  <si>
-    <t>Go字段</t>
-  </si>
-  <si>
-    <t>GoFieldName</t>
-  </si>
-  <si>
-    <t>C#字段</t>
-  </si>
-  <si>
-    <t>CSFieldName</t>
-  </si>
-  <si>
     <t>TablePragma</t>
   </si>
   <si>
@@ -133,13 +139,19 @@
     <t>数据表</t>
   </si>
   <si>
-    <t>DataTable</t>
+    <t>Data</t>
   </si>
   <si>
     <t>符号表</t>
   </si>
   <si>
-    <t>SymbolTable</t>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>键值表</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
   </si>
 </sst>
 </file>
@@ -147,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -175,12 +187,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -189,6 +267,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -197,44 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,45 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -303,10 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,13 +350,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,139 +494,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +549,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,51 +592,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,6 +616,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -638,6 +639,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1369,10 +1381,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1385,16 +1397,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1404,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1423,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1442,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1458,17 +1470,17 @@
     </row>
     <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1476,19 +1488,19 @@
     </row>
     <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1496,32 +1508,43 @@
     </row>
     <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="2"/>
@@ -1595,33 +1618,6 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -142,7 +142,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>符号表</t>
+    <t>类型表</t>
   </si>
   <si>
     <t>Symbol</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,8 +185,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,74 +223,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +269,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -283,47 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,25 +344,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,157 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +553,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,7 +596,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,46 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,145 +658,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>种类</t>
   </si>
@@ -31,15 +31,12 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>数组</t>
+    <t>数组切割</t>
   </si>
   <si>
     <t>值</t>
   </si>
   <si>
-    <t>切割符</t>
-  </si>
-  <si>
     <t>表头</t>
   </si>
   <si>
@@ -67,13 +64,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>IsArray</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Splitter</t>
+    <t>ArraySplitter</t>
   </si>
   <si>
     <t>输入字段</t>
@@ -103,30 +94,24 @@
     <t>TablePragma</t>
   </si>
   <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>TableMode</t>
+  </si>
+  <si>
     <t>表类型</t>
   </si>
   <si>
     <t>TableType</t>
   </si>
   <si>
-    <t>表名</t>
-  </si>
-  <si>
-    <t>TableName</t>
-  </si>
-  <si>
     <t>表文件名</t>
   </si>
   <si>
     <t>TableFileName</t>
   </si>
   <si>
-    <t>垂直表</t>
-  </si>
-  <si>
-    <t>IsVertical</t>
-  </si>
-  <si>
     <t>枚举</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>类型表</t>
   </si>
   <si>
-    <t>Symbol</t>
+    <t>Type</t>
   </si>
   <si>
     <t>键值表</t>
@@ -159,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,38 +170,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +186,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,69 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,169 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,6 +553,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,30 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +601,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -658,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,37 +655,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,94 +691,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,22 +1114,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,219 +1151,216 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1387,74 +1369,73 @@
         <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" ht="16.5" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -1463,88 +1444,69 @@
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="2"/>
@@ -1564,60 +1526,6 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>种类</t>
   </si>
@@ -40,103 +40,97 @@
     <t>表头</t>
   </si>
   <si>
-    <t>TableField</t>
-  </si>
-  <si>
-    <t>Kind</t>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>输入字段</t>
+  </si>
+  <si>
+    <t>InputFieldName</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>ObjectType</t>
+    <t>Go字段</t>
+  </si>
+  <si>
+    <t>GoFieldName</t>
+  </si>
+  <si>
+    <t>C#字段</t>
+  </si>
+  <si>
+    <t>CSFieldName</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>TablePragma</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>TableMode</t>
+  </si>
+  <si>
+    <t>表类型</t>
+  </si>
+  <si>
+    <t>TableType</t>
+  </si>
+  <si>
+    <t>表文件名</t>
+  </si>
+  <si>
+    <t>TableFileName</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>类型表</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>键值表</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>TableKeyValue</t>
+  </si>
+  <si>
+    <t>FieldName</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>ArraySplitter</t>
-  </si>
-  <si>
-    <t>输入字段</t>
-  </si>
-  <si>
-    <t>InputFieldName</t>
-  </si>
-  <si>
-    <t>Go字段</t>
-  </si>
-  <si>
-    <t>GoFieldName</t>
-  </si>
-  <si>
-    <t>C#字段</t>
-  </si>
-  <si>
-    <t>CSFieldName</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>TablePragma</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>TableMode</t>
-  </si>
-  <si>
-    <t>表类型</t>
-  </si>
-  <si>
-    <t>TableType</t>
-  </si>
-  <si>
-    <t>表文件名</t>
-  </si>
-  <si>
-    <t>TableFileName</t>
-  </si>
-  <si>
-    <t>枚举</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>数据表</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>类型表</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>键值表</t>
-  </si>
-  <si>
-    <t>KeyValue</t>
   </si>
 </sst>
 </file>
@@ -144,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -170,9 +164,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,76 +253,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,51 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -329,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +532,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,7 +581,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,65 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,16 +1108,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
@@ -1160,14 +1154,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
@@ -1178,14 +1173,15 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -1196,14 +1192,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
@@ -1214,14 +1211,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
@@ -1229,17 +1227,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
@@ -1247,17 +1246,18 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
@@ -1265,266 +1265,184 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -165,9 +165,116 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,12 +287,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,117 +302,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,17 +532,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +590,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,30 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,115 +667,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>种类</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>TableType</t>
+  </si>
+  <si>
+    <t>缺省时，取文件名同名类型</t>
   </si>
   <si>
     <t>表文件名</t>
@@ -1108,19 +1111,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
@@ -1146,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1164,8 +1168,10 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,8 +1189,10 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1202,8 +1210,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1221,8 +1231,10 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1252,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1259,8 +1273,12 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,120 +1286,136 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:5">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1392,57 +1426,81 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:5">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" ht="16.5" spans="4:9">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/table/BuiltinTypes.xlsx
+++ b/v3/table/BuiltinTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="19095" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,74 +168,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,9 +197,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,42 +304,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -326,55 +326,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,127 +488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,45 +531,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +560,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -616,8 +601,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
